--- a/Python/応用/excel×Python/excels/matsuda.xlsx
+++ b/Python/応用/excel×Python/excels/matsuda.xlsx
@@ -127,15 +127,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,8 +330,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="A2:A32 C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,7 +413,7 @@
         <v>44935</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -445,7 +445,7 @@
         <v>44939</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -453,7 +453,7 @@
         <v>44940</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A32"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2809,8 +2809,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2988,7 +2988,7 @@
         <v>45006</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4058,7 +4058,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="A2:A32 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
